--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rtn4-S1pr2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H2">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I2">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J2">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N2">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O2">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P2">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q2">
-        <v>48.41735569798652</v>
+        <v>48.47661591297899</v>
       </c>
       <c r="R2">
-        <v>48.41735569798652</v>
+        <v>193.906463651916</v>
       </c>
       <c r="S2">
-        <v>0.004930737976370547</v>
+        <v>0.00461627652858822</v>
       </c>
       <c r="T2">
-        <v>0.004930737976370547</v>
+        <v>0.002379195886573565</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H3">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I3">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J3">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N3">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O3">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P3">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q3">
-        <v>199.2478253188581</v>
+        <v>210.4631950732542</v>
       </c>
       <c r="R3">
-        <v>199.2478253188581</v>
+        <v>1262.779170439525</v>
       </c>
       <c r="S3">
-        <v>0.02029104656472998</v>
+        <v>0.02004175186841425</v>
       </c>
       <c r="T3">
-        <v>0.02029104656472998</v>
+        <v>0.01549406322707082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H4">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I4">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J4">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N4">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O4">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P4">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q4">
-        <v>371.1686778065496</v>
+        <v>391.4119638007531</v>
       </c>
       <c r="R4">
-        <v>371.1686778065496</v>
+        <v>2348.471782804519</v>
       </c>
       <c r="S4">
-        <v>0.03779916248867151</v>
+        <v>0.03727293721875238</v>
       </c>
       <c r="T4">
-        <v>0.03779916248867151</v>
+        <v>0.02881530764963435</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H5">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I5">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J5">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N5">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O5">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P5">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q5">
-        <v>374.8336476789738</v>
+        <v>380.5977042815143</v>
       </c>
       <c r="R5">
-        <v>374.8336476789738</v>
+        <v>2283.586225689085</v>
       </c>
       <c r="S5">
-        <v>0.03817239654641182</v>
+        <v>0.03624312910503547</v>
       </c>
       <c r="T5">
-        <v>0.03817239654641182</v>
+        <v>0.02801917405161157</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H6">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I6">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J6">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N6">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O6">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P6">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q6">
-        <v>40.89237003284435</v>
+        <v>42.86502660451782</v>
       </c>
       <c r="R6">
-        <v>40.89237003284435</v>
+        <v>257.1901596271069</v>
       </c>
       <c r="S6">
-        <v>0.004164406728910383</v>
+        <v>0.004081902428316293</v>
       </c>
       <c r="T6">
-        <v>0.004164406728910383</v>
+        <v>0.003155674949291281</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.4219360171216</v>
+        <v>45.45060549999999</v>
       </c>
       <c r="H7">
-        <v>45.4219360171216</v>
+        <v>90.90121099999999</v>
       </c>
       <c r="I7">
-        <v>0.1126280358418541</v>
+        <v>0.1092442560256595</v>
       </c>
       <c r="J7">
-        <v>0.1126280358418541</v>
+        <v>0.08146511437786726</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N7">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O7">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P7">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q7">
-        <v>71.39053069665216</v>
+        <v>73.38536575119899</v>
       </c>
       <c r="R7">
-        <v>71.39053069665216</v>
+        <v>293.541463004796</v>
       </c>
       <c r="S7">
-        <v>0.007270285536759883</v>
+        <v>0.006988258876552914</v>
       </c>
       <c r="T7">
-        <v>0.007270285536759883</v>
+        <v>0.003601698613685673</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H8">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I8">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J8">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N8">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O8">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P8">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q8">
-        <v>81.47713095180541</v>
+        <v>85.602569383766</v>
       </c>
       <c r="R8">
-        <v>81.47713095180541</v>
+        <v>513.615416302596</v>
       </c>
       <c r="S8">
-        <v>0.008297487089045838</v>
+        <v>0.008151664970642538</v>
       </c>
       <c r="T8">
-        <v>0.008297487089045838</v>
+        <v>0.006301964683041814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H9">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I9">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J9">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N9">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O9">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P9">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q9">
-        <v>335.2959062165835</v>
+        <v>371.6470285658639</v>
       </c>
       <c r="R9">
-        <v>335.2959062165835</v>
+        <v>3344.823257092775</v>
       </c>
       <c r="S9">
-        <v>0.03414594279820279</v>
+        <v>0.03539078424879935</v>
       </c>
       <c r="T9">
-        <v>0.03414594279820279</v>
+        <v>0.0410403530893958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H10">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I10">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J10">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N10">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O10">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P10">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q10">
-        <v>624.6057540914061</v>
+        <v>691.1759238523766</v>
       </c>
       <c r="R10">
-        <v>624.6057540914061</v>
+        <v>6220.583314671389</v>
       </c>
       <c r="S10">
-        <v>0.06360874664797389</v>
+        <v>0.06581852165861987</v>
       </c>
       <c r="T10">
-        <v>0.06360874664797389</v>
+        <v>0.07632538882727484</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H11">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I11">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J11">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N11">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O11">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P11">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q11">
-        <v>630.7731960329399</v>
+        <v>672.0795330793184</v>
       </c>
       <c r="R11">
-        <v>630.7731960329399</v>
+        <v>6048.715797713866</v>
       </c>
       <c r="S11">
-        <v>0.06423682804068501</v>
+        <v>0.06400003208697436</v>
       </c>
       <c r="T11">
-        <v>0.06423682804068501</v>
+        <v>0.07421660667695423</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H12">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I12">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J12">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N12">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O12">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P12">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q12">
-        <v>68.81402216342636</v>
+        <v>75.69332852435743</v>
       </c>
       <c r="R12">
-        <v>68.81402216342636</v>
+        <v>681.2399567192169</v>
       </c>
       <c r="S12">
-        <v>0.00700789845906684</v>
+        <v>0.007208038953563903</v>
       </c>
       <c r="T12">
-        <v>0.00700789845906684</v>
+        <v>0.008358686308185372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>76.4364136702626</v>
+        <v>80.25908033333333</v>
       </c>
       <c r="H13">
-        <v>76.4364136702626</v>
+        <v>240.777241</v>
       </c>
       <c r="I13">
-        <v>0.1895314003179442</v>
+        <v>0.1929092786303725</v>
       </c>
       <c r="J13">
-        <v>0.1895314003179442</v>
+        <v>0.2157831041178573</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N13">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O13">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P13">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q13">
-        <v>120.1365819020122</v>
+        <v>129.587755769646</v>
       </c>
       <c r="R13">
-        <v>120.1365819020122</v>
+        <v>777.5265346178761</v>
       </c>
       <c r="S13">
-        <v>0.01223449728296987</v>
+        <v>0.01234023671177252</v>
       </c>
       <c r="T13">
-        <v>0.01223449728296987</v>
+        <v>0.009540104533005189</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H14">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I14">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J14">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N14">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O14">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P14">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q14">
-        <v>87.31122919098986</v>
+        <v>87.57620228967001</v>
       </c>
       <c r="R14">
-        <v>87.31122919098986</v>
+        <v>525.4572137380201</v>
       </c>
       <c r="S14">
-        <v>0.008891621347952083</v>
+        <v>0.008339607859971468</v>
       </c>
       <c r="T14">
-        <v>0.008891621347952083</v>
+        <v>0.00644726131326954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H15">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I15">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J15">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N15">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O15">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P15">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q15">
-        <v>359.3044744272266</v>
+        <v>380.2156359130417</v>
       </c>
       <c r="R15">
-        <v>359.3044744272266</v>
+        <v>3421.940723217375</v>
       </c>
       <c r="S15">
-        <v>0.0365909329743066</v>
+        <v>0.03620674592917884</v>
       </c>
       <c r="T15">
-        <v>0.0365909329743066</v>
+        <v>0.0419865699133795</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H16">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I16">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J16">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N16">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O16">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P16">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q16">
-        <v>669.330099285699</v>
+        <v>707.1115150023118</v>
       </c>
       <c r="R16">
-        <v>669.330099285699</v>
+        <v>6364.003635020806</v>
       </c>
       <c r="S16">
-        <v>0.06816339495824864</v>
+        <v>0.06733601816717727</v>
       </c>
       <c r="T16">
-        <v>0.06816339495824864</v>
+        <v>0.07808512921859534</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H17">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I17">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J17">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N17">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O17">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P17">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q17">
-        <v>675.9391554783858</v>
+        <v>687.5748422904633</v>
       </c>
       <c r="R17">
-        <v>675.9391554783858</v>
+        <v>6188.173580614171</v>
       </c>
       <c r="S17">
-        <v>0.06883644956619787</v>
+        <v>0.06547560192342974</v>
       </c>
       <c r="T17">
-        <v>0.06883644956619787</v>
+        <v>0.07592772747807765</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H18">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I18">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J18">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N18">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O18">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P18">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q18">
-        <v>73.74138964488957</v>
+        <v>77.43849628051832</v>
       </c>
       <c r="R18">
-        <v>73.74138964488957</v>
+        <v>696.946466524665</v>
       </c>
       <c r="S18">
-        <v>0.007509692859321424</v>
+        <v>0.007374225821180163</v>
       </c>
       <c r="T18">
-        <v>0.007509692859321424</v>
+        <v>0.008551402233264749</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>81.9095757857405</v>
+        <v>82.109515</v>
       </c>
       <c r="H19">
-        <v>81.9095757857405</v>
+        <v>246.328545</v>
       </c>
       <c r="I19">
-        <v>0.2031026293971707</v>
+        <v>0.1973569500367323</v>
       </c>
       <c r="J19">
-        <v>0.2031026293971707</v>
+        <v>0.2207581491181523</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N19">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O19">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P19">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q19">
-        <v>128.7388560953775</v>
+        <v>132.57550089027</v>
       </c>
       <c r="R19">
-        <v>128.7388560953775</v>
+        <v>795.4530053416202</v>
       </c>
       <c r="S19">
-        <v>0.01311053769114406</v>
+        <v>0.01262475033579486</v>
       </c>
       <c r="T19">
-        <v>0.01311053769114406</v>
+        <v>0.009760058961565529</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H20">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I20">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J20">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N20">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O20">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P20">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q20">
-        <v>81.25290656552865</v>
+        <v>83.071937804448</v>
       </c>
       <c r="R20">
-        <v>81.25290656552865</v>
+        <v>498.431626826688</v>
       </c>
       <c r="S20">
-        <v>0.008274652473633553</v>
+        <v>0.007910680839590971</v>
       </c>
       <c r="T20">
-        <v>0.008274652473633553</v>
+        <v>0.006115662438220682</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H21">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I21">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J21">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N21">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O21">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P21">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q21">
-        <v>334.3731746732134</v>
+        <v>360.6601888761333</v>
       </c>
       <c r="R21">
-        <v>334.3731746732134</v>
+        <v>3245.9416998852</v>
       </c>
       <c r="S21">
-        <v>0.03405197344780559</v>
+        <v>0.03434454186517031</v>
       </c>
       <c r="T21">
-        <v>0.03405197344780559</v>
+        <v>0.03982709495588373</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H22">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I22">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J22">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N22">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O22">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P22">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q22">
-        <v>622.8868442544983</v>
+        <v>670.7429902108214</v>
       </c>
       <c r="R22">
-        <v>622.8868442544983</v>
+        <v>6036.686911897392</v>
       </c>
       <c r="S22">
-        <v>0.06343369590658962</v>
+        <v>0.06387275728948498</v>
       </c>
       <c r="T22">
-        <v>0.06343369590658962</v>
+        <v>0.07406901450743279</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H23">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I23">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J23">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N23">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O23">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P23">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q23">
-        <v>629.0373134471383</v>
+        <v>652.2111377441386</v>
       </c>
       <c r="R23">
-        <v>629.0373134471383</v>
+        <v>5869.900239697247</v>
       </c>
       <c r="S23">
-        <v>0.06406004882453528</v>
+        <v>0.06210802693522972</v>
       </c>
       <c r="T23">
-        <v>0.06406004882453528</v>
+        <v>0.07202257336792436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H24">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I24">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J24">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N24">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O24">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P24">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q24">
-        <v>68.62464654714506</v>
+        <v>73.45563952873066</v>
       </c>
       <c r="R24">
-        <v>68.62464654714506</v>
+        <v>661.1007557585759</v>
       </c>
       <c r="S24">
-        <v>0.006988612780831513</v>
+        <v>0.006994950828614439</v>
       </c>
       <c r="T24">
-        <v>0.006988612780831513</v>
+        <v>0.008111582095246662</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>76.22606129599269</v>
+        <v>77.886416</v>
       </c>
       <c r="H25">
-        <v>76.22606129599269</v>
+        <v>233.659248</v>
       </c>
       <c r="I25">
-        <v>0.1890098114816657</v>
+        <v>0.1872063854116316</v>
       </c>
       <c r="J25">
-        <v>0.1890098114816657</v>
+        <v>0.2094040019309144</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N25">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O25">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P25">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q25">
-        <v>119.805967028468</v>
+        <v>125.756809229088</v>
       </c>
       <c r="R25">
-        <v>119.805967028468</v>
+        <v>754.5408553745281</v>
       </c>
       <c r="S25">
-        <v>0.01220082804827012</v>
+        <v>0.01197542765354123</v>
       </c>
       <c r="T25">
-        <v>0.01220082804827012</v>
+        <v>0.009258074566206129</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H26">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I26">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J26">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N26">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O26">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P26">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q26">
-        <v>42.12078917568052</v>
+        <v>46.37849042304801</v>
       </c>
       <c r="R26">
-        <v>42.12078917568052</v>
+        <v>278.2709425382881</v>
       </c>
       <c r="S26">
-        <v>0.004289506764448564</v>
+        <v>0.004416478599818034</v>
       </c>
       <c r="T26">
-        <v>0.004289506764448564</v>
+        <v>0.003414332195901001</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H27">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I27">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J27">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N27">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O27">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P27">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q27">
-        <v>173.3361007221931</v>
+        <v>201.3540981208556</v>
       </c>
       <c r="R27">
-        <v>173.3361007221931</v>
+        <v>1812.1868830877</v>
       </c>
       <c r="S27">
-        <v>0.01765224230414653</v>
+        <v>0.01917432105324604</v>
       </c>
       <c r="T27">
-        <v>0.01765224230414653</v>
+        <v>0.02223519266322417</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H28">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I28">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J28">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N28">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O28">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P28">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q28">
-        <v>322.8990390145556</v>
+        <v>374.4711893088103</v>
       </c>
       <c r="R28">
-        <v>322.8990390145556</v>
+        <v>3370.240703779293</v>
       </c>
       <c r="S28">
-        <v>0.03288346774106943</v>
+        <v>0.03565972024412599</v>
       </c>
       <c r="T28">
-        <v>0.03288346774106943</v>
+        <v>0.04135222038595134</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H29">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I29">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J29">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N29">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O29">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P29">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q29">
-        <v>326.0873879259361</v>
+        <v>364.1249837806498</v>
       </c>
       <c r="R29">
-        <v>326.0873879259361</v>
+        <v>3277.124854025848</v>
       </c>
       <c r="S29">
-        <v>0.03320816356207473</v>
+        <v>0.03467448344819672</v>
       </c>
       <c r="T29">
-        <v>0.03320816356207473</v>
+        <v>0.04020970639989933</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H30">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I30">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J30">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N30">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O30">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P30">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q30">
-        <v>35.57441070907102</v>
+        <v>41.00977736214178</v>
       </c>
       <c r="R30">
-        <v>35.57441070907102</v>
+        <v>369.087996259276</v>
       </c>
       <c r="S30">
-        <v>0.003622835145404566</v>
+        <v>0.003905232845034416</v>
       </c>
       <c r="T30">
-        <v>0.003622835145404566</v>
+        <v>0.004528640386429286</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>39.5149169827131</v>
+        <v>43.48344933333334</v>
       </c>
       <c r="H31">
-        <v>39.5149169827131</v>
+        <v>130.450348</v>
       </c>
       <c r="I31">
-        <v>0.09798101702532691</v>
+        <v>0.1045160349260795</v>
       </c>
       <c r="J31">
-        <v>0.09798101702532691</v>
+        <v>0.11690881126383</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N31">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O31">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P31">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q31">
-        <v>62.10635523696483</v>
+        <v>70.20915999568801</v>
       </c>
       <c r="R31">
-        <v>62.10635523696483</v>
+        <v>421.2549599741281</v>
       </c>
       <c r="S31">
-        <v>0.006324801508183091</v>
+        <v>0.006685798735658333</v>
       </c>
       <c r="T31">
-        <v>0.006324801508183091</v>
+        <v>0.005168719232424897</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H32">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I32">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J32">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.06594654353209</v>
+        <v>1.066578</v>
       </c>
       <c r="N32">
-        <v>1.06594654353209</v>
+        <v>2.133156</v>
       </c>
       <c r="O32">
-        <v>0.04377895733966283</v>
+        <v>0.04225646909530822</v>
       </c>
       <c r="P32">
-        <v>0.04377895733966283</v>
+        <v>0.02920508864123014</v>
       </c>
       <c r="Q32">
-        <v>89.30783040073729</v>
+        <v>92.639399509746</v>
       </c>
       <c r="R32">
-        <v>89.30783040073729</v>
+        <v>370.557598038984</v>
       </c>
       <c r="S32">
-        <v>0.009094951688212248</v>
+        <v>0.008821760296696988</v>
       </c>
       <c r="T32">
-        <v>0.009094951688212248</v>
+        <v>0.00454667212422354</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H33">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I33">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J33">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>4.386599136676</v>
+        <v>4.630591666666667</v>
       </c>
       <c r="N33">
-        <v>4.386599136676</v>
+        <v>13.891775</v>
       </c>
       <c r="O33">
-        <v>0.180159819116632</v>
+        <v>0.1834581752628422</v>
       </c>
       <c r="P33">
-        <v>0.180159819116632</v>
+        <v>0.1901926161326339</v>
       </c>
       <c r="Q33">
-        <v>367.5209175463563</v>
+        <v>402.197712098725</v>
       </c>
       <c r="R33">
-        <v>367.5209175463563</v>
+        <v>2413.18627259235</v>
       </c>
       <c r="S33">
-        <v>0.03742768102744049</v>
+        <v>0.03830003029803346</v>
       </c>
       <c r="T33">
-        <v>0.03742768102744049</v>
+        <v>0.02960934228367989</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H34">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I34">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J34">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.171573260695871</v>
+        <v>8.611809666666668</v>
       </c>
       <c r="N34">
-        <v>8.171573260695871</v>
+        <v>25.835429</v>
       </c>
       <c r="O34">
-        <v>0.3356105982505719</v>
+        <v>0.3411889885542141</v>
       </c>
       <c r="P34">
-        <v>0.3356105982505719</v>
+        <v>0.353713462132731</v>
       </c>
       <c r="Q34">
-        <v>684.6360948413326</v>
+        <v>747.992998366951</v>
       </c>
       <c r="R34">
-        <v>684.6360948413326</v>
+        <v>4487.957990201706</v>
       </c>
       <c r="S34">
-        <v>0.06972213050801884</v>
+        <v>0.07122903397605364</v>
       </c>
       <c r="T34">
-        <v>0.06972213050801884</v>
+        <v>0.05506640154384229</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H35">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I35">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J35">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.25226048351796</v>
+        <v>8.373875333333332</v>
       </c>
       <c r="N35">
-        <v>8.25226048351796</v>
+        <v>25.121626</v>
       </c>
       <c r="O35">
-        <v>0.3389244628221283</v>
+        <v>0.331762331710352</v>
       </c>
       <c r="P35">
-        <v>0.3389244628221283</v>
+        <v>0.3439407685803719</v>
       </c>
       <c r="Q35">
-        <v>691.3962845103416</v>
+        <v>727.3268175880939</v>
       </c>
       <c r="R35">
-        <v>691.3962845103416</v>
+        <v>4363.960905528564</v>
       </c>
       <c r="S35">
-        <v>0.07041057628222368</v>
+        <v>0.06926105821148594</v>
       </c>
       <c r="T35">
-        <v>0.07041057628222368</v>
+        <v>0.05354498060590472</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H36">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I36">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J36">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.900278007027929</v>
+        <v>0.9431123333333332</v>
       </c>
       <c r="N36">
-        <v>0.900278007027929</v>
+        <v>2.829337</v>
       </c>
       <c r="O36">
-        <v>0.0369748677385958</v>
+        <v>0.0373649158025986</v>
       </c>
       <c r="P36">
-        <v>0.0369748677385958</v>
+        <v>0.03873651897981777</v>
       </c>
       <c r="Q36">
-        <v>75.42768073410764</v>
+        <v>81.91558444880299</v>
       </c>
       <c r="R36">
-        <v>75.42768073410764</v>
+        <v>491.493506692818</v>
       </c>
       <c r="S36">
-        <v>0.007681421765061077</v>
+        <v>0.00780056492588939</v>
       </c>
       <c r="T36">
-        <v>0.007681421765061077</v>
+        <v>0.006030533007400423</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>83.78265396387459</v>
+        <v>86.856657</v>
       </c>
       <c r="H37">
-        <v>83.78265396387459</v>
+        <v>173.713314</v>
       </c>
       <c r="I37">
-        <v>0.2077471059360386</v>
+        <v>0.2087670949695245</v>
       </c>
       <c r="J37">
-        <v>0.2077471059360386</v>
+        <v>0.1556808191913788</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.57171923868991</v>
+        <v>1.614618</v>
       </c>
       <c r="N37">
-        <v>1.57171923868991</v>
+        <v>3.229236</v>
       </c>
       <c r="O37">
-        <v>0.0645512947324093</v>
+        <v>0.06396911957468498</v>
       </c>
       <c r="P37">
-        <v>0.0645512947324093</v>
+        <v>0.04421154553321532</v>
       </c>
       <c r="Q37">
-        <v>131.6828091035212</v>
+        <v>140.240321812026</v>
       </c>
       <c r="R37">
-        <v>131.6828091035212</v>
+        <v>560.961287248104</v>
       </c>
       <c r="S37">
-        <v>0.01341034466508228</v>
+        <v>0.01335464726136513</v>
       </c>
       <c r="T37">
-        <v>0.01341034466508228</v>
+        <v>0.006882889626327905</v>
       </c>
     </row>
   </sheetData>
